--- a/cv/job_satisfaction_predictor{git.xlsx
+++ b/cv/job_satisfaction_predictor{git.xlsx
@@ -13,8 +13,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>HP</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Big surprise. Stigma overrides everything ..bonus, leaves</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>GS</t>
   </si>
@@ -40,31 +63,6 @@
     <t>95G</t>
   </si>
   <si>
-    <t xml:space="preserve">satisfication then-n-there </t>
-  </si>
-  <si>
-    <t>0 # was 1</t>
-  </si>
-  <si>
-    <t>3→1</t>
-  </si>
-  <si>
-    <t>...in retrospect (0-5)</t>
-  </si>
-  <si>
-    <t>1 #free 
-to go</t>
-  </si>
-  <si>
-    <t>3 despite $</t>
-  </si>
-  <si>
-    <t>4 despite $</t>
-  </si>
-  <si>
-    <t>4 despite MD</t>
-  </si>
-  <si>
     <t>----- Criteria ranked</t>
   </si>
   <si>
@@ -75,9 +73,6 @@
   </si>
   <si>
     <t>5++</t>
-  </si>
-  <si>
-    <t>.. per adv #theoretical,accu...</t>
   </si>
   <si>
     <t>2 #detailed, perl</t>
@@ -119,12 +114,6 @@
     <t>2 #bonus</t>
   </si>
   <si>
-    <t>.. mkt depth # =}job security</t>
-  </si>
-  <si>
-    <t>1 #py</t>
-  </si>
-  <si>
     <t>4 #bond</t>
   </si>
   <si>
@@ -145,9 +134,6 @@
   </si>
   <si>
     <t>lite workload #bonus-driven</t>
-  </si>
-  <si>
-    <t>5→4</t>
   </si>
   <si>
     <t>3→4</t>
@@ -210,9 +196,6 @@
     <t>distraction: kids,MSFM,home maintenance.. affecting xx/blogging</t>
   </si>
   <si>
-    <t>.. strategic tsn? White elephant</t>
-  </si>
-  <si>
     <t>mvea</t>
   </si>
   <si>
@@ -226,14 +209,7 @@
     <t>5→2</t>
   </si>
   <si>
-    <t>1 despite leaves, bonus</t>
-  </si>
-  <si>
     <t>3 → 0</t>
-  </si>
-  <si>
-    <t>3→1 # bonus,
- transfer</t>
   </si>
   <si>
     <t>2 #py+devop</t>
@@ -245,15 +221,65 @@
     <t>5→1</t>
   </si>
   <si>
-    <t>5 though not
+    <t>mkt depth # =}job security</t>
+  </si>
+  <si>
+    <t>.. per adv #theoretical...</t>
+  </si>
+  <si>
+    <t>.. LG: strategic tsn? White elephant</t>
+  </si>
+  <si>
+    <t>3→0 # bonus,
+ transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG: accu? All similar rating </t>
+  </si>
+  <si>
+    <t>2 #py,devops</t>
+  </si>
+  <si>
+    <t>2 #j</t>
+  </si>
+  <si>
+    <t>0 #h1b 
+shackle</t>
+  </si>
+  <si>
+    <t>9 though not
 strategic</t>
+  </si>
+  <si>
+    <t>...in retrospect (0-10)</t>
+  </si>
+  <si>
+    <t>8 despite MD</t>
+  </si>
+  <si>
+    <t>7 despite $</t>
+  </si>
+  <si>
+    <t>6 despite $</t>
+  </si>
+  <si>
+    <t>2 #stigma</t>
+  </si>
+  <si>
+    <t>satisfication then-n-there (0-10)</t>
+  </si>
+  <si>
+    <t>8→0</t>
+  </si>
+  <si>
+    <t>4→2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -310,6 +336,12 @@
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -433,17 +465,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -455,6 +476,19 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,26 +539,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -536,10 +565,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,11 +886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -853,9 +899,9 @@
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
@@ -896,7 +942,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -905,10 +951,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -943,37 +989,37 @@
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="6">
         <v>8</v>
       </c>
-      <c r="C3" s="6">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
+      <c r="D3" s="5">
+        <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5">
+        <v>7</v>
+      </c>
+      <c r="K3" s="5">
         <v>10</v>
       </c>
-      <c r="H3" s="6">
-        <v>2</v>
-      </c>
-      <c r="I3" s="5">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5">
-        <v>3</v>
-      </c>
-      <c r="K3" s="5">
-        <v>5</v>
-      </c>
       <c r="L3" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -993,35 +1039,37 @@
     <row r="4" spans="1:26" ht="33">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="27" t="s">
         <v>69</v>
       </c>
+      <c r="C4" s="5">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
       <c r="H4" s="8" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="I4" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
-      <c r="L4" s="28" t="s">
-        <v>75</v>
+      <c r="L4" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1041,7 +1089,7 @@
     <row r="5" spans="1:26" ht="16.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1070,26 +1118,26 @@
     </row>
     <row r="6" spans="1:26" ht="49.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="25" t="s">
-        <v>66</v>
+      <c r="B6" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>70</v>
+      <c r="D6" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
+      <c r="F6" s="23" t="s">
+        <v>63</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>71</v>
+      <c r="G6" s="5" t="s">
+        <v>10</v>
       </c>
-      <c r="H6" s="26" t="s">
-        <v>73</v>
+      <c r="H6" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="I6" s="5">
         <v>3</v>
@@ -1101,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1121,22 +1169,22 @@
     <row r="7" spans="1:26" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5">
         <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
@@ -1145,13 +1193,13 @@
         <v>2</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K7" s="11">
         <v>5</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1171,37 +1219,37 @@
     <row r="8" spans="1:26" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1221,22 +1269,22 @@
     <row r="9" spans="1:26" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="5">
         <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
@@ -1271,37 +1319,37 @@
     <row r="10" spans="1:26" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
+      <c r="D10" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="5">
         <v>3</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="H10" s="5">
         <v>2</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J10" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
-      <c r="K10" s="5">
-        <v>2</v>
+      <c r="K10" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="L10" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1377,22 +1425,22 @@
     <row r="13" spans="1:26" ht="16.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C13" s="13">
         <v>2</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>38</v>
+      <c r="D13" s="29" t="s">
+        <v>27</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>39</v>
+      <c r="E13" s="27" t="s">
+        <v>28</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>40</v>
+      <c r="F13" s="24" t="s">
+        <v>57</v>
       </c>
-      <c r="G13" s="29" t="s">
-        <v>72</v>
+      <c r="G13" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H13" s="5">
         <v>3</v>
@@ -1407,7 +1455,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1427,16 +1475,16 @@
     <row r="14" spans="1:26" ht="16.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="5" t="s">
-        <v>68</v>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="14">
+        <v>1</v>
       </c>
-      <c r="G14" s="14">
-        <v>1</v>
+      <c r="G14" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5">
@@ -1445,8 +1493,8 @@
       <c r="J14" s="5">
         <v>4</v>
       </c>
-      <c r="K14" s="31" t="s">
-        <v>74</v>
+      <c r="K14" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="L14" s="5">
         <v>1</v>
@@ -1468,11 +1516,11 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="30" t="s">
-        <v>42</v>
+      <c r="B15" s="25" t="s">
+        <v>31</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>43</v>
+      <c r="C15" s="6">
+        <v>5</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -1480,11 +1528,11 @@
       <c r="E15" s="5">
         <v>2</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
+        <v>3</v>
+      </c>
+      <c r="G15" s="6">
         <v>4</v>
-      </c>
-      <c r="G15" s="5">
-        <v>3</v>
       </c>
       <c r="H15" s="5">
         <v>5</v>
@@ -1492,14 +1540,14 @@
       <c r="I15" s="5">
         <v>5</v>
       </c>
-      <c r="J15" s="31" t="s">
-        <v>44</v>
+      <c r="J15" s="26" t="s">
+        <v>32</v>
       </c>
-      <c r="K15" s="31" t="s">
-        <v>44</v>
+      <c r="K15" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1519,10 +1567,10 @@
     <row r="16" spans="1:26" ht="16.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D16" s="5">
         <v>0</v>
@@ -1530,11 +1578,11 @@
       <c r="E16" s="5">
         <v>2</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="5">
         <v>4</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="H16" s="5">
         <v>2</v>
@@ -1569,7 +1617,7 @@
     <row r="17" spans="1:26" ht="16.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C17" s="15">
         <v>1</v>
@@ -1581,13 +1629,13 @@
         <v>3</v>
       </c>
       <c r="F17" s="5">
-        <v>4</v>
-      </c>
-      <c r="G17" s="5">
         <v>3</v>
       </c>
+      <c r="G17" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="H17" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I17" s="5">
         <v>4</v>
@@ -1619,37 +1667,37 @@
     <row r="18" spans="1:26" ht="33">
       <c r="A18" s="1"/>
       <c r="B18" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1669,96 +1717,96 @@
     <row r="19" spans="1:26" ht="16.5" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="17" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="30">
         <v>2</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>53</v>
+      <c r="D19" s="30" t="s">
+        <v>41</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="30">
         <v>1</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="30">
+        <v>1</v>
+      </c>
+      <c r="G19" s="30">
         <v>2</v>
       </c>
-      <c r="G19" s="18">
+      <c r="H19" s="31">
+        <v>5</v>
+      </c>
+      <c r="I19" s="30">
+        <v>5</v>
+      </c>
+      <c r="J19" s="30">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30">
+        <v>3</v>
+      </c>
+      <c r="L19" s="30">
+        <v>3</v>
+      </c>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+    </row>
+    <row r="20" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="32">
+        <v>5</v>
+      </c>
+      <c r="D20" s="33">
         <v>1</v>
       </c>
-      <c r="H19" s="19">
+      <c r="E20" s="34"/>
+      <c r="F20" s="33">
+        <v>3</v>
+      </c>
+      <c r="G20" s="33">
+        <v>4</v>
+      </c>
+      <c r="H20" s="33">
         <v>5</v>
       </c>
-      <c r="I19" s="18">
-        <v>5</v>
-      </c>
-      <c r="J19" s="18">
-        <v>5</v>
-      </c>
-      <c r="K19" s="18">
-        <v>3</v>
-      </c>
-      <c r="L19" s="18">
-        <v>3</v>
-      </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-    </row>
-    <row r="20" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="22">
-        <v>5</v>
-      </c>
-      <c r="D20" s="21">
-        <v>1</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="21">
-        <v>4</v>
-      </c>
-      <c r="G20" s="21">
-        <v>3</v>
-      </c>
-      <c r="H20" s="24">
-        <v>5</v>
-      </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="21">
+      <c r="I20" s="34"/>
+      <c r="J20" s="33">
         <v>4</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L20" s="36"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="1"/>
@@ -1791,18 +1839,38 @@
     <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="C22" s="6">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>4</v>
+      </c>
+      <c r="G22" s="6">
+        <v>3</v>
+      </c>
+      <c r="H22" s="6">
+        <v>3</v>
+      </c>
+      <c r="I22" s="6">
+        <v>4</v>
+      </c>
+      <c r="J22" s="6">
+        <v>5</v>
+      </c>
+      <c r="K22" s="6">
+        <v>4</v>
+      </c>
+      <c r="L22" s="6">
+        <v>4</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1821,7 +1889,7 @@
     <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1830,7 +1898,9 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="J23" s="5">
+        <v>5</v>
+      </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="1"/>
@@ -1850,17 +1920,19 @@
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -1878,9 +1950,7 @@
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="1"/>
@@ -1909,7 +1979,7 @@
     <row r="26" spans="1:26" ht="16.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1939,7 +2009,7 @@
     <row r="27" spans="1:26" ht="16.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1968,7 +2038,9 @@
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="1"/>
@@ -29238,6 +29310,34 @@
       <c r="Y1001" s="1"/>
       <c r="Z1001" s="1"/>
     </row>
+    <row r="1002" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="1"/>
+      <c r="I1002" s="1"/>
+      <c r="J1002" s="1"/>
+      <c r="K1002" s="1"/>
+      <c r="L1002" s="1"/>
+      <c r="M1002" s="1"/>
+      <c r="N1002" s="1"/>
+      <c r="O1002" s="1"/>
+      <c r="P1002" s="1"/>
+      <c r="Q1002" s="1"/>
+      <c r="R1002" s="1"/>
+      <c r="S1002" s="1"/>
+      <c r="T1002" s="1"/>
+      <c r="U1002" s="1"/>
+      <c r="V1002" s="1"/>
+      <c r="W1002" s="1"/>
+      <c r="X1002" s="1"/>
+      <c r="Y1002" s="1"/>
+      <c r="Z1002" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E13:E14"/>
@@ -29246,5 +29346,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/cv/job_satisfaction_predictor{git.xlsx
+++ b/cv/job_satisfaction_predictor{git.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>GS</t>
   </si>
@@ -181,9 +181,6 @@
     <t>[1=see explanations in blog https://bintanvictor.wordpress.com/2018/03/21/predict-next-5y-job-satisfaction/]</t>
   </si>
   <si>
-    <t>I don't want to relocate this to wordpress table because I need to add columns frequently.</t>
-  </si>
-  <si>
     <t>[2] rated 4 by team peers but bonus was a stigma</t>
   </si>
   <si>
@@ -273,6 +270,42 @@
   </si>
   <si>
     <t>4→2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engagement honeymoon + traction; </t>
+  </si>
+  <si>
+    <t>self-esteem@comp</t>
+  </si>
+  <si>
+    <t>bonus..was completely ignored</t>
+  </si>
+  <si>
+    <t>respect from colleagues/mgr</t>
+  </si>
+  <si>
+    <t>nice commutes</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>GTD gains in c++, MSVS, devops, git..</t>
+  </si>
+  <si>
+    <t>c++ muscle building. Also c#/py</t>
+  </si>
+  <si>
+    <t>2→4</t>
+  </si>
+  <si>
+    <t>nice workload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--- </t>
+  </si>
+  <si>
+    <t>positive parts outnumbered 1:10</t>
   </si>
 </sst>
 </file>
@@ -496,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -558,13 +591,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -580,12 +606,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -907,7 +948,9 @@
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="26" width="9" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="15" max="26" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="3.75" customHeight="1">
@@ -942,7 +985,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -951,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
@@ -989,7 +1032,7 @@
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="6">
         <v>8</v>
@@ -1001,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="5">
         <v>2</v>
@@ -1039,40 +1082,39 @@
     <row r="4" spans="1:26" ht="33">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="5">
         <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="5">
         <v>3</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="5">
         <v>8</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1101,8 +1143,12 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>87</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1119,25 +1165,25 @@
     <row r="6" spans="1:26" ht="49.5">
       <c r="A6" s="1"/>
       <c r="B6" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="5">
         <v>3</v>
@@ -1151,8 +1197,12 @@
       <c r="L6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>76</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1169,7 +1219,7 @@
     <row r="7" spans="1:26" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1201,8 +1251,12 @@
       <c r="L7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1251,8 +1305,12 @@
       <c r="L8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1301,8 +1359,12 @@
       <c r="L9" s="5">
         <v>0</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1319,19 +1381,19 @@
     <row r="10" spans="1:26" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="5">
         <v>3</v>
@@ -1346,13 +1408,17 @@
         <v>4</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" s="5">
         <v>4</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1379,8 +1445,12 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1407,8 +1477,12 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1430,14 +1504,14 @@
       <c r="C13" s="13">
         <v>2</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="33" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>29</v>
@@ -1457,8 +1531,12 @@
       <c r="L13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1475,16 +1553,16 @@
     <row r="14" spans="1:26" ht="16.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="14">
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5">
@@ -1494,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L14" s="5">
         <v>1</v>
@@ -1523,10 +1601,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5">
         <v>3</v>
@@ -1544,10 +1622,10 @@
         <v>32</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1632,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>37</v>
@@ -1667,7 +1745,7 @@
     <row r="18" spans="1:26" ht="33">
       <c r="A18" s="1"/>
       <c r="B18" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>38</v>
@@ -1717,36 +1795,36 @@
     <row r="19" spans="1:26" ht="16.5" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="27">
         <v>2</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="27">
         <v>1</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="27">
         <v>1</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="27">
         <v>2</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="28">
         <v>5</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="27">
         <v>5</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="27">
         <v>5</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="27">
         <v>3</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="27">
         <v>3</v>
       </c>
       <c r="M19" s="18"/>
@@ -1769,30 +1847,30 @@
       <c r="B20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="29">
         <v>5</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="30">
         <v>1</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="33">
+      <c r="E20" s="31"/>
+      <c r="F20" s="30">
         <v>3</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="30">
         <v>4</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="30">
         <v>5</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="33">
+      <c r="I20" s="31"/>
+      <c r="J20" s="30">
         <v>4</v>
       </c>
-      <c r="K20" s="35" t="s">
+      <c r="K20" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="36"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -1839,7 +1917,7 @@
     <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="6">
         <v>3</v>
@@ -2038,9 +2116,7 @@
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="1"/>
@@ -29310,34 +29386,6 @@
       <c r="Y1001" s="1"/>
       <c r="Z1001" s="1"/>
     </row>
-    <row r="1002" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A1002" s="1"/>
-      <c r="B1002" s="1"/>
-      <c r="C1002" s="2"/>
-      <c r="D1002" s="2"/>
-      <c r="E1002" s="1"/>
-      <c r="F1002" s="1"/>
-      <c r="G1002" s="1"/>
-      <c r="H1002" s="1"/>
-      <c r="I1002" s="1"/>
-      <c r="J1002" s="1"/>
-      <c r="K1002" s="1"/>
-      <c r="L1002" s="1"/>
-      <c r="M1002" s="1"/>
-      <c r="N1002" s="1"/>
-      <c r="O1002" s="1"/>
-      <c r="P1002" s="1"/>
-      <c r="Q1002" s="1"/>
-      <c r="R1002" s="1"/>
-      <c r="S1002" s="1"/>
-      <c r="T1002" s="1"/>
-      <c r="U1002" s="1"/>
-      <c r="V1002" s="1"/>
-      <c r="W1002" s="1"/>
-      <c r="X1002" s="1"/>
-      <c r="Y1002" s="1"/>
-      <c r="Z1002" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E13:E14"/>

--- a/cv/job_satisfaction_predictor{git.xlsx
+++ b/cv/job_satisfaction_predictor{git.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>GS</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>1 #devops</t>
-  </si>
-  <si>
-    <t>3 #lowLevel</t>
-  </si>
-  <si>
-    <t>4 #SQL,thread</t>
   </si>
   <si>
     <t>2) self-esteem@comp</t>
@@ -221,9 +215,6 @@
     <t>mkt depth # =}job security</t>
   </si>
   <si>
-    <t>.. per adv #theoretical...</t>
-  </si>
-  <si>
     <t>.. LG: strategic tsn? White elephant</t>
   </si>
   <si>
@@ -306,6 +297,21 @@
   </si>
   <si>
     <t>positive parts outnumbered 1:10</t>
+  </si>
+  <si>
+    <t>3~4</t>
+  </si>
+  <si>
+    <t>4.9 #SQL,thread</t>
+  </si>
+  <si>
+    <t>4 #lowLevel</t>
+  </si>
+  <si>
+    <t>.. Team caliber #mtv;localSys..</t>
+  </si>
+  <si>
+    <t>.. per adv #theoretical,absorbency...</t>
   </si>
 </sst>
 </file>
@@ -529,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -607,6 +613,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -620,13 +633,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -947,7 +960,7 @@
     <col min="9" max="9" width="7.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
     <col min="13" max="13" width="1.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.28515625" customWidth="1"/>
     <col min="15" max="26" width="9" customWidth="1"/>
@@ -985,7 +998,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -994,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
@@ -1032,7 +1045,7 @@
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6">
         <v>8</v>
@@ -1044,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G3" s="5">
         <v>2</v>
@@ -1082,37 +1095,37 @@
     <row r="4" spans="1:26" ht="33">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="5">
         <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G4" s="5">
         <v>3</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I4" s="5">
         <v>8</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M4" s="1"/>
       <c r="O4" s="1"/>
@@ -1143,11 +1156,11 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="40" t="s">
-        <v>86</v>
+      <c r="M5" s="35" t="s">
+        <v>83</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1165,25 +1178,25 @@
     <row r="6" spans="1:26" ht="49.5">
       <c r="A6" s="1"/>
       <c r="B6" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I6" s="5">
         <v>3</v>
@@ -1197,11 +1210,11 @@
       <c r="L6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="38" t="s">
-        <v>81</v>
+      <c r="M6" s="33" t="s">
+        <v>78</v>
       </c>
-      <c r="N6" s="39" t="s">
-        <v>76</v>
+      <c r="N6" s="34" t="s">
+        <v>73</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1218,8 +1231,8 @@
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>60</v>
+      <c r="B7" s="43" t="s">
+        <v>89</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1242,20 +1255,20 @@
       <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>14</v>
+      <c r="J7" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="K7" s="11">
         <v>5</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
+      <c r="L7" s="42" t="s">
+        <v>86</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1272,45 +1285,39 @@
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
+      <c r="B8" s="43" t="s">
+        <v>88</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
+      <c r="E8" s="6">
+        <v>1</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
+      <c r="F8" s="6">
+        <v>0</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>19</v>
+      <c r="G8" s="6">
+        <v>4</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>20</v>
+      <c r="H8" s="6">
+        <v>4</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>21</v>
+      <c r="I8" s="6">
+        <v>3</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>19</v>
+      <c r="J8" s="6">
+        <v>5</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>20</v>
+      <c r="K8" s="41" t="s">
+        <v>85</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>22</v>
+      <c r="L8" s="7">
+        <v>4</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1327,43 +1334,43 @@
     <row r="9" spans="1:26" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
-      <c r="C9" s="5">
-        <v>0</v>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
-      <c r="E9" s="5">
-        <v>1</v>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
-      <c r="G9" s="5">
-        <v>1</v>
+      <c r="G9" s="5" t="s">
+        <v>18</v>
       </c>
-      <c r="H9" s="5">
-        <v>0</v>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
       </c>
-      <c r="I9" s="5">
-        <v>0</v>
+      <c r="I9" s="5" t="s">
+        <v>17</v>
       </c>
-      <c r="J9" s="5">
-        <v>0</v>
+      <c r="J9" s="5" t="s">
+        <v>18</v>
       </c>
-      <c r="K9" s="5">
-        <v>0</v>
+      <c r="K9" s="5" t="s">
+        <v>20</v>
       </c>
-      <c r="L9" s="5">
-        <v>0</v>
+      <c r="L9" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1381,43 +1388,43 @@
     <row r="10" spans="1:26" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
         <v>0</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="5">
-        <v>3</v>
-      </c>
-      <c r="H10" s="5">
-        <v>2</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>25</v>
+      <c r="I10" s="5">
+        <v>0</v>
       </c>
       <c r="J10" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>65</v>
+      <c r="K10" s="5">
+        <v>0</v>
       </c>
       <c r="L10" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1434,22 +1441,44 @@
     </row>
     <row r="11" spans="1:26" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="5">
+        <v>4</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="5">
+        <v>4</v>
+      </c>
       <c r="M11" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1478,7 +1507,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>80</v>
@@ -1498,44 +1527,22 @@
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="5">
-        <v>3</v>
-      </c>
-      <c r="I13" s="5">
-        <v>2</v>
-      </c>
-      <c r="J13" s="5">
-        <v>4</v>
-      </c>
-      <c r="K13" s="5">
-        <v>5</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1552,33 +1559,45 @@
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
-        <v>61</v>
+      <c r="B14" s="12" t="s">
+        <v>24</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="14">
-        <v>1</v>
+      <c r="C14" s="13">
+        <v>2</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5">
+        <v>3</v>
+      </c>
       <c r="I14" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" s="5">
         <v>4</v>
       </c>
-      <c r="K14" s="26" t="s">
-        <v>58</v>
+      <c r="K14" s="5">
+        <v>5</v>
       </c>
-      <c r="L14" s="5">
-        <v>1</v>
+      <c r="L14" s="5" t="s">
+        <v>28</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1594,38 +1613,30 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="25" t="s">
-        <v>31</v>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
       </c>
-      <c r="C15" s="6">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="C15" s="5"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="14">
         <v>1</v>
       </c>
-      <c r="F15" s="5">
-        <v>3</v>
+      <c r="G15" s="5" t="s">
+        <v>52</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
         <v>4</v>
       </c>
-      <c r="H15" s="5">
-        <v>5</v>
-      </c>
-      <c r="I15" s="5">
-        <v>5</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>32</v>
+      <c r="J15" s="5">
+        <v>4</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>84</v>
+      <c r="L15" s="5">
+        <v>1</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1644,38 +1655,38 @@
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+      <c r="B16" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>34</v>
+      <c r="C16" s="6">
+        <v>5</v>
       </c>
       <c r="D16" s="5">
         <v>0</v>
       </c>
       <c r="E16" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>35</v>
+      <c r="F16" s="5">
+        <v>3</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <v>4</v>
       </c>
       <c r="H16" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
-      <c r="J16" s="5">
-        <v>4</v>
+      <c r="J16" s="26" t="s">
+        <v>30</v>
       </c>
-      <c r="K16" s="5">
-        <v>3</v>
+      <c r="K16" s="26" t="s">
+        <v>81</v>
       </c>
-      <c r="L16" s="5">
-        <v>3</v>
+      <c r="L16" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1695,37 +1706,37 @@
     <row r="17" spans="1:26" ht="16.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
-      <c r="C17" s="15">
-        <v>1</v>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
         <v>2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="5">
+        <v>4</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2</v>
+      </c>
+      <c r="I17" s="5">
         <v>3</v>
       </c>
-      <c r="F17" s="5">
-        <v>3</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <v>4</v>
-      </c>
-      <c r="J17" s="5">
-        <v>5</v>
       </c>
       <c r="K17" s="5">
         <v>3</v>
       </c>
       <c r="L17" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1742,40 +1753,40 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="33">
+    <row r="18" spans="1:26" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="12" t="s">
-        <v>50</v>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>38</v>
+      <c r="C18" s="15">
+        <v>1</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>39</v>
+      <c r="D18" s="5">
+        <v>2</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>39</v>
+      <c r="E18" s="5">
+        <v>3</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>39</v>
+      <c r="F18" s="5">
+        <v>3</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>40</v>
+      <c r="I18" s="5">
+        <v>4</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>38</v>
+      <c r="J18" s="5">
+        <v>5</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>38</v>
+      <c r="K18" s="5">
+        <v>3</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>38</v>
+      <c r="L18" s="5">
+        <v>5</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1792,85 +1803,91 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17" t="s">
-        <v>49</v>
+    <row r="19" spans="1:26" ht="33">
+      <c r="A19" s="1"/>
+      <c r="B19" s="12" t="s">
+        <v>48</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="27">
         <v>2</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>41</v>
+      <c r="D20" s="27" t="s">
+        <v>39</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E20" s="27">
         <v>1</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F20" s="27">
         <v>1</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G20" s="27">
         <v>2</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H20" s="28">
         <v>5</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I20" s="27">
         <v>5</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J20" s="27">
         <v>5</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K20" s="27">
         <v>3</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L20" s="27">
         <v>3</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-    </row>
-    <row r="20" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="29">
-        <v>5</v>
-      </c>
-      <c r="D20" s="30">
-        <v>1</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="30">
-        <v>3</v>
-      </c>
-      <c r="G20" s="30">
-        <v>4</v>
-      </c>
-      <c r="H20" s="30">
-        <v>5</v>
-      </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="30">
-        <v>4</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="37"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -1887,68 +1904,62 @@
       <c r="Z20" s="18"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="29">
+        <v>5</v>
+      </c>
+      <c r="D21" s="30">
+        <v>1</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="30">
+        <v>3</v>
+      </c>
+      <c r="G21" s="30">
+        <v>4</v>
+      </c>
+      <c r="H21" s="30">
+        <v>5</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="30">
+        <v>4</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="40"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="6">
-        <v>3</v>
-      </c>
-      <c r="D22" s="6">
-        <v>3</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <v>4</v>
-      </c>
-      <c r="G22" s="6">
-        <v>3</v>
-      </c>
-      <c r="H22" s="6">
-        <v>3</v>
-      </c>
-      <c r="I22" s="6">
-        <v>4</v>
-      </c>
-      <c r="J22" s="6">
-        <v>5</v>
-      </c>
-      <c r="K22" s="6">
-        <v>4</v>
-      </c>
-      <c r="L22" s="6">
-        <v>4</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1967,20 +1978,38 @@
     <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5">
+      <c r="C23" s="6">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>4</v>
+      </c>
+      <c r="G23" s="6">
+        <v>3</v>
+      </c>
+      <c r="H23" s="6">
+        <v>3</v>
+      </c>
+      <c r="I23" s="6">
+        <v>4</v>
+      </c>
+      <c r="J23" s="6">
         <v>5</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="K23" s="6">
+        <v>4</v>
+      </c>
+      <c r="L23" s="6">
+        <v>4</v>
+      </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1999,7 +2028,7 @@
     <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2008,7 +2037,9 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="J24" s="5">
+        <v>5</v>
+      </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="1"/>
@@ -2028,17 +2059,19 @@
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -2056,9 +2089,7 @@
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="1"/>
@@ -2087,7 +2118,7 @@
     <row r="27" spans="1:26" ht="16.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2116,7 +2147,9 @@
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="1"/>
@@ -29386,14 +29419,42 @@
       <c r="Y1001" s="1"/>
       <c r="Z1001" s="1"/>
     </row>
+    <row r="1002" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="1"/>
+      <c r="I1002" s="1"/>
+      <c r="J1002" s="1"/>
+      <c r="K1002" s="1"/>
+      <c r="L1002" s="1"/>
+      <c r="M1002" s="1"/>
+      <c r="N1002" s="1"/>
+      <c r="O1002" s="1"/>
+      <c r="P1002" s="1"/>
+      <c r="Q1002" s="1"/>
+      <c r="R1002" s="1"/>
+      <c r="S1002" s="1"/>
+      <c r="T1002" s="1"/>
+      <c r="U1002" s="1"/>
+      <c r="V1002" s="1"/>
+      <c r="W1002" s="1"/>
+      <c r="X1002" s="1"/>
+      <c r="Y1002" s="1"/>
+      <c r="Z1002" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="K21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/cv/job_satisfaction_predictor{git.xlsx
+++ b/cv/job_satisfaction_predictor{git.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>GS</t>
   </si>
@@ -200,9 +200,6 @@
     <t>5→2</t>
   </si>
   <si>
-    <t>3 → 0</t>
-  </si>
-  <si>
     <t>2 #py+devop</t>
   </si>
   <si>
@@ -229,10 +226,6 @@
   </si>
   <si>
     <t>2 #j</t>
-  </si>
-  <si>
-    <t>0 #h1b 
-shackle</t>
   </si>
   <si>
     <t>9 though not
@@ -312,6 +305,19 @@
   </si>
   <si>
     <t>.. per adv #theoretical,absorbency...</t>
+  </si>
+  <si>
+    <t>3 &gt; 0</t>
+  </si>
+  <si>
+    <t>3 → 2</t>
+  </si>
+  <si>
+    <t>2 #java</t>
+  </si>
+  <si>
+    <t>0 # h1b 
+shackle</t>
   </si>
 </sst>
 </file>
@@ -620,6 +626,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -633,13 +646,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,7 +950,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1045,19 +1051,19 @@
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="6">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
+      <c r="D3" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G3" s="5">
         <v>2</v>
@@ -1095,37 +1101,37 @@
     <row r="4" spans="1:26" ht="33">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="5">
         <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G4" s="5">
         <v>3</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I4" s="5">
         <v>8</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M4" s="1"/>
       <c r="O4" s="1"/>
@@ -1157,10 +1163,10 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1184,19 +1190,19 @@
         <v>9</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="5">
         <v>3</v>
@@ -1211,10 +1217,10 @@
         <v>11</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1231,8 +1237,8 @@
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="43" t="s">
-        <v>89</v>
+      <c r="B7" s="38" t="s">
+        <v>87</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1256,19 +1262,19 @@
         <v>2</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K7" s="11">
         <v>5</v>
       </c>
-      <c r="L7" s="42" t="s">
-        <v>86</v>
+      <c r="L7" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1285,8 +1291,8 @@
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="43" t="s">
-        <v>88</v>
+      <c r="B8" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
@@ -1310,8 +1316,8 @@
       <c r="J8" s="6">
         <v>5</v>
       </c>
-      <c r="K8" s="41" t="s">
-        <v>85</v>
+      <c r="K8" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="L8" s="7">
         <v>4</v>
@@ -1367,10 +1373,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1421,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1442,19 +1448,19 @@
     <row r="11" spans="1:26" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5">
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="5">
         <v>3</v>
@@ -1469,16 +1475,16 @@
         <v>4</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11" s="5">
         <v>4</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1507,10 +1513,10 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1539,10 +1545,10 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1565,14 +1571,14 @@
       <c r="C14" s="13">
         <v>2</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="39" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>27</v>
@@ -1593,10 +1599,10 @@
         <v>28</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1614,11 +1620,11 @@
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="14">
         <v>1</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L15" s="5">
         <v>1</v>
@@ -1683,10 +1689,10 @@
         <v>30</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1771,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>35</v>
@@ -1928,10 +1934,10 @@
       <c r="J21" s="30">
         <v>4</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="40"/>
+      <c r="L21" s="43"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
@@ -1978,7 +1984,7 @@
     <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="6">
         <v>3</v>
